--- a/edoc/edoc_master.xlsx
+++ b/edoc/edoc_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\PycharmProjects\mas\edoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E760E-7774-49D8-841D-DB84F6316C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A9ACA-611D-45E5-B52C-8B52CC9254AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A936554-80CA-48C4-8CDC-2248CC671729}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>raw</t>
   </si>
@@ -44,9 +44,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>1900-2020.json</t>
-  </si>
-  <si>
     <t>must have fields</t>
   </si>
   <si>
@@ -57,6 +54,21 @@
   </si>
   <si>
     <t>selected_master.json</t>
+  </si>
+  <si>
+    <t>raw_master.json</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>indexed</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>must ha</t>
   </si>
 </sst>
 </file>
@@ -434,62 +446,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DEC46D-F8FD-4FC3-904B-2607D956C52A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>68345</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="4">
+        <v>20201210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
         <v>4111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
